--- a/field_data/group_tests/group_tests_nodes.xlsx
+++ b/field_data/group_tests/group_tests_nodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/academia/institutions/WUR/courses/WIAS/WIAS_AnimalTracking/field_data/group_tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/git/WIAS_tracking_course/field_data/group_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A51C667-2F41-DD45-8BE5-4826332436E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C651EF-D4C8-C645-82B5-F68F1B511AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{904C4A86-AC86-F046-867D-7EECA82373E5}"/>
   </bookViews>
@@ -36,12 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>node</t>
   </si>
   <si>
     <t>grid_point</t>
+  </si>
+  <si>
+    <t>37A7D6</t>
+  </si>
+  <si>
+    <t>328782</t>
+  </si>
+  <si>
+    <t>368502</t>
+  </si>
+  <si>
+    <t>364654</t>
+  </si>
+  <si>
+    <t>325F14</t>
   </si>
 </sst>
 </file>
@@ -77,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,20 +409,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183DE2B4-6F22-2340-8920-187E44F11591}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>363538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
